--- a/02-anno3.xlsx
+++ b/02-anno3.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Desktop\2022 Spring\CMPT 419\419-Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="289">
   <si>
     <t>Tweet</t>
   </si>
@@ -141,7 +136,7 @@
     <t>@xBFDR yeah I'm sure it will, it's just so depressing having to talk to my parents over the phone instead of talking to them downstairs</t>
   </si>
   <si>
-    <t>| At home sick... ðŸŽ¼The bluesðŸŽ¼ won't cure it so I need ideas ðŸŽ¸ðŸˁEE­ | #sorethroat #sick #blues #music #fallweather #carletonuniversity #ottawa</t>
+    <t>| At home sick... ðŸŽ¼The bluesðŸŽ¼ won't cure it so I need ideas ðŸŽ¸ðŸˁEEEE­ | #sorethroat #sick #blues #music #fallweather #carletonuniversity #ottawa</t>
   </si>
   <si>
     <t>I wouldn't wish anxiety and depression even on the worst of people. It's not fun. #anxiety #depression</t>
@@ -156,10 +151,10 @@
     <t>come to the funeral tomorrow at 12 to mourn the death of my gpa</t>
   </si>
   <si>
-    <t>Thought I had a pretty solid GPA as a kin major and now that I look at the average for dpt programs I feel even more discouraged ðŸˁEEª</t>
-  </si>
-  <si>
-    <t>depress ðŸˁEE</t>
+    <t>Thought I had a pretty solid GPA as a kin major and now that I look at the average for dpt programs I feel even more discouraged ðŸˁEEEEª</t>
+  </si>
+  <si>
+    <t>depress ðŸˁEEEE</t>
   </si>
   <si>
     <t>Summer officially ends today. #sadness</t>
@@ -189,7 +184,7 @@
     <t>Wearing all black tomorrow as I continue to mourn the lives of the most recent victims of police brutality. #blackout #WU</t>
   </si>
   <si>
-    <t>Am I the only person who dislikes fall? #FirstDayofFall #leaves #thingsdie #depressing #cold #noflipflops ðŸ�EE��EEŽðŸEE¾ðŸ�EE��EEŽðŸEE½ðŸ�EE��EEŽðŸEE»ðŸEE�EE��EEðŸ</t>
+    <t>Am I the only person who dislikes fall? #FirstDayofFall #leaves #thingsdie #depressing #cold #noflipflops ðŸ�EEEE��EEEEŽðŸEEEE¾ðŸ�EEEE��EEEEŽðŸEEEE½ðŸ�EEEE��EEEEŽðŸEEEE»ðŸEEEE�EEEE��EEEEðŸ</t>
   </si>
   <si>
     <t>My soul is weary of fighting the battles in this world. #BlackInAmerica #WeAreNotSafe</t>
@@ -228,22 +223,22 @@
     <t>@CTV_PowerPlay @lraitt Horrid disease! My maternal grandmother and each of her sisters suffered from this affliction. It's hard on all.</t>
   </si>
   <si>
-    <t>If anybody needs me I'll be drowning my blues in a sea of whiskey ðŸEE»</t>
-  </si>
-  <si>
-    <t>@Gaychel22 @Kellee_II @seattlepi even hard facts don't seem to be sinking in... I despair ðŸˁEE©</t>
+    <t>If anybody needs me I'll be drowning my blues in a sea of whiskey ðŸEEEE»</t>
+  </si>
+  <si>
+    <t>@Gaychel22 @Kellee_II @seattlepi even hard facts don't seem to be sinking in... I despair ðŸˁEEEE©</t>
   </si>
   <si>
     <t>So depressing that it's darker so much earlier now</t>
   </si>
   <si>
-    <t>It's just begun ladies and gents. The war on racism has begun. #sadness #Segregation continues.... smh ðŸˁEE�EE��EE</t>
+    <t>It's just begun ladies and gents. The war on racism has begun. #sadness #Segregation continues.... smh ðŸˁEEEE�EEEE��EEEE</t>
   </si>
   <si>
     <t>@ily_geuly call me now I'm laying in my bed moping like I intend to do for the next 2 months.</t>
   </si>
   <si>
-    <t>Baaarissshhhhh + sad song =  prefect night â�EE�EE��EE��EE feeling alone</t>
+    <t>Baaarissshhhhh + sad song =  prefect night â�EEEE�EEEE��EEEE��EEEE feeling alone</t>
   </si>
   <si>
     <t>im so gloomy today</t>
@@ -306,7 +301,7 @@
     <t>And there is despair underneath each and every action \nEach and every attempt to pierce the armour of numbness ' -Mgla</t>
   </si>
   <si>
-    <t>One step forward, two steps backward, the link to RogerFedererShop doesnÁEE´t work.ðŸˁEE° I am losing hope about Roger Federer new Website #sadness</t>
+    <t>One step forward, two steps backward, the link to RogerFedererShop doesnÁEEEE´t work.ðŸˁEEEE° I am losing hope about Roger Federer new Website #sadness</t>
   </si>
   <si>
     <t>My friends tell me I'm pretty. Trigger tells my I'm ugly. I first was confused but then realised I'm both. Pretty ugly. #tru  #tumblr</t>
@@ -390,7 +385,7 @@
     <t>Don't wanna go to work but I want the money #sad</t>
   </si>
   <si>
-    <t>Wow the #Denver housing market is #depressing no places to buy in my range ðŸˁEE¢ #FML</t>
+    <t>Wow the #Denver housing market is #depressing no places to buy in my range ðŸˁEEEE¢ #FML</t>
   </si>
   <si>
     <t>I have not nap for 3 days in a row I'm very unhappy rn</t>
@@ -456,7 +451,7 @@
     <t>@HutchinsonDave I don't know whether to despair or agitate for a cull.</t>
   </si>
   <si>
-    <t>Can I just sulk in peace ðŸˁEE�EE��EE</t>
+    <t>Can I just sulk in peace ðŸˁEEEE�EEEE��EEEE</t>
   </si>
   <si>
     <t>It's sad when your man leaves work a little bit late and your worst fear is 'Oh no!! Did he get stopped by the police?!?! ' #sad #ourworld</t>
@@ -513,7 +508,7 @@
     <t>@JUSTICESLUT420 sadly this sort of poster died by the 90s afaik</t>
   </si>
   <si>
-    <t>@lucy_hyner @Soulboy2266 sadly not !! One less hour drinking time ðŸˁEE¢ðŸEE»</t>
+    <t>@lucy_hyner @Soulboy2266 sadly not !! One less hour drinking time ðŸˁEEEE¢ðŸEEEE»</t>
   </si>
   <si>
     <t>I was in the dark room for 58 minutes and failed every time I tried developing a photo I'm so frustrated with myself :')</t>
@@ -582,7 +577,7 @@
     <t>@WestHamUtd poor service tonight to find season ticket holders in the seats we purchased online. Forced to move further away #unhappy</t>
   </si>
   <si>
-    <t>Even a pencilâŁEEEE never #stayed  with me until it's #end âš« ðŸˁEEž</t>
+    <t>Even a pencilâŁEEEEEEEE never #stayed  with me until it's #end âš« ðŸˁEEEEž</t>
   </si>
   <si>
     <t>so gutted i dropped one of my earrings down the sink at school</t>
@@ -600,10 +595,10 @@
     <t>All the 'juniors' are now wearing purple at ollafest while I'm here fighting with my alarm about when I need to wake up for German #sadness</t>
   </si>
   <si>
-    <t>The fact I haven't had to wear a bra for a week and knowing I'll have to start wearing one again after tomorrow is depressing ðŸ�EE�EE��EE��EEðŸ�EE�EE��EE��EE</t>
-  </si>
-  <si>
-    <t>Liam is too distant makes me mourn ðŸˁEEª</t>
+    <t>The fact I haven't had to wear a bra for a week and knowing I'll have to start wearing one again after tomorrow is depressing ðŸ�EEEE�EEEE��EEEE��EEEEðŸ�EEEE�EEEE��EEEE��EEEE</t>
+  </si>
+  <si>
+    <t>Liam is too distant makes me mourn ðŸˁEEEEª</t>
   </si>
   <si>
     <t>It's now September and we're still battling a situation that was said to be handled March of this year. @ATT this is unacceptable</t>
@@ -789,7 +784,7 @@
     <t>@ChibiReviews Post series depression can be quite bad, but it will get better, I bet someone will pick the novel soon in the west.</t>
   </si>
   <si>
-    <t>@iTriborg â�EE�EE��EE��EE make him feel vigorous. 'Fine. You can kill me now.' Said Hestia with a display of only despair rather than her joyful â�EE�EE��EE��EE</t>
+    <t>@iTriborg â�EEEE�EEEE��EEEE��EEEE make him feel vigorous. 'Fine. You can kill me now.' Said Hestia with a display of only despair rather than her joyful â�EEEE�EEEE��EEEE��EEEE</t>
   </si>
   <si>
     <t>The 2nd step to beating #anxiety or #depression is realising that it's not about waiting for ...., Take action yourself now.</t>
@@ -825,7 +820,7 @@
     <t>In need of a serious nap rn</t>
   </si>
   <si>
-    <t>@JohnWildy71 something, too confused to type an entire word ðŸˁEEŁEE See, I can laugh again. My hour of sadness has almost passed</t>
+    <t>@JohnWildy71 something, too confused to type an entire word ðŸˁEEEEŁEEEE See, I can laugh again. My hour of sadness has almost passed</t>
   </si>
   <si>
     <t>Interview preparation, I hate talking about myself, one dull subject matter! #yawnoff</t>
@@ -837,7 +832,7 @@
     <t>No episode today! Whilst editing there was a power outage! We will rebuild...tomorrow #podcast #lost #editing #fail #tomorrow</t>
   </si>
   <si>
-    <t>It is a solemn thing, and no small scandal in the Kingdom, to see Godâ�EE�EE��EE�EE�s children starving while seated at the Fatherâ�EE�EE��EE�EE�s table. -AW Tozer</t>
+    <t>It is a solemn thing, and no small scandal in the Kingdom, to see Godâ�EEEE�EEEE��EEEE�EEEE�s children starving while seated at the Fatherâ�EEEE�EEEE��EEEE�EEEE�s table. -AW Tozer</t>
   </si>
   <si>
     <t>Gonna be a loooooong year as a Browns fan. Longer than normal and that's</t>
@@ -858,7 +853,7 @@
     <t>Pops are joyless, soulless toys which look nearly identical.  They are the perfect expression of consumerism.  'I enjoy this franchise'</t>
   </si>
   <si>
-    <t>Why is it that we rejoice at a birth and grieve at a funeral? It is because we are not the person involved. â�EE�EE��EE�� Mark Twain</t>
+    <t>Why is it that we rejoice at a birth and grieve at a funeral? It is because we are not the person involved. â�EEEE�EEEE��EEEE�� Mark Twain</t>
   </si>
   <si>
     <t>Regret for the things we did can be tempered by time; it is regret for the things we did not do that is inconsolable. - Sydney J. Harris</t>
@@ -886,34 +881,13 @@
   </si>
   <si>
     <t>guilty</t>
-  </si>
-  <si>
-    <t>guilt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lonely </t>
-  </si>
-  <si>
-    <t xml:space="preserve">depressed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">displeased </t>
-  </si>
-  <si>
-    <t xml:space="preserve">grief </t>
-  </si>
-  <si>
-    <t xml:space="preserve">guilt </t>
-  </si>
-  <si>
-    <t>lost</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -976,14 +950,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1030,7 +996,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1062,10 +1028,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1097,7 +1062,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1273,19 +1237,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="E226" sqref="E226"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="9" width="17.28515625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1314,7 +1273,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1322,7 +1281,7 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>0.95799999999999996</v>
+        <v>0.958</v>
       </c>
       <c r="D2" t="s">
         <v>283</v>
@@ -1343,7 +1302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1351,7 +1310,7 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>0.95799999999999996</v>
+        <v>0.958</v>
       </c>
       <c r="D3" t="s">
         <v>283</v>
@@ -1372,7 +1331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1380,7 +1339,7 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>0.95799999999999996</v>
+        <v>0.958</v>
       </c>
       <c r="D4" t="s">
         <v>283</v>
@@ -1401,7 +1360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1409,7 +1368,7 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>0.93400000000000005</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="D5" t="s">
         <v>283</v>
@@ -1430,7 +1389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1438,7 +1397,7 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>0.91700000000000004</v>
+        <v>0.917</v>
       </c>
       <c r="D6" t="s">
         <v>283</v>
@@ -1459,7 +1418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1467,7 +1426,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>0.91700000000000004</v>
+        <v>0.917</v>
       </c>
       <c r="D7" t="s">
         <v>283</v>
@@ -1488,7 +1447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1496,7 +1455,7 @@
         <v>15</v>
       </c>
       <c r="C8">
-        <v>0.91700000000000004</v>
+        <v>0.917</v>
       </c>
       <c r="D8" t="s">
         <v>283</v>
@@ -1517,7 +1476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1525,7 +1484,7 @@
         <v>16</v>
       </c>
       <c r="C9">
-        <v>0.89600000000000002</v>
+        <v>0.896</v>
       </c>
       <c r="D9" t="s">
         <v>284</v>
@@ -1546,7 +1505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1554,7 +1513,7 @@
         <v>17</v>
       </c>
       <c r="C10">
-        <v>0.89600000000000002</v>
+        <v>0.896</v>
       </c>
       <c r="D10" t="s">
         <v>283</v>
@@ -1575,7 +1534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1583,7 +1542,7 @@
         <v>18</v>
       </c>
       <c r="C11">
-        <v>0.89600000000000002</v>
+        <v>0.896</v>
       </c>
       <c r="D11" t="s">
         <v>283</v>
@@ -1604,7 +1563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1612,7 +1571,7 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>0.89600000000000002</v>
+        <v>0.896</v>
       </c>
       <c r="D12" t="s">
         <v>283</v>
@@ -1633,7 +1592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1641,7 +1600,7 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>0.89600000000000002</v>
+        <v>0.896</v>
       </c>
       <c r="D13" t="s">
         <v>283</v>
@@ -1662,7 +1621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1670,7 +1629,7 @@
         <v>21</v>
       </c>
       <c r="C14">
-        <v>0.89600000000000002</v>
+        <v>0.896</v>
       </c>
       <c r="D14" t="s">
         <v>283</v>
@@ -1691,7 +1650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1699,7 +1658,7 @@
         <v>22</v>
       </c>
       <c r="C15">
-        <v>0.89600000000000002</v>
+        <v>0.896</v>
       </c>
       <c r="D15" t="s">
         <v>283</v>
@@ -1720,7 +1679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1728,7 +1687,7 @@
         <v>23</v>
       </c>
       <c r="C16">
-        <v>0.89200000000000002</v>
+        <v>0.892</v>
       </c>
       <c r="D16" t="s">
         <v>284</v>
@@ -1749,7 +1708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1757,7 +1716,7 @@
         <v>24</v>
       </c>
       <c r="C17">
-        <v>0.88800000000000001</v>
+        <v>0.888</v>
       </c>
       <c r="D17" t="s">
         <v>283</v>
@@ -1778,7 +1737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1807,7 +1766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1836,7 +1795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1865,7 +1824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1894,7 +1853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1902,7 +1861,7 @@
         <v>29</v>
       </c>
       <c r="C22">
-        <v>0.86099999999999999</v>
+        <v>0.861</v>
       </c>
       <c r="D22" t="s">
         <v>284</v>
@@ -1923,7 +1882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1931,7 +1890,7 @@
         <v>30</v>
       </c>
       <c r="C23">
-        <v>0.85399999999999998</v>
+        <v>0.854</v>
       </c>
       <c r="D23" t="s">
         <v>284</v>
@@ -1952,7 +1911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1981,7 +1940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1989,7 +1948,7 @@
         <v>32</v>
       </c>
       <c r="C25">
-        <v>0.85399999999999998</v>
+        <v>0.854</v>
       </c>
       <c r="D25" t="s">
         <v>284</v>
@@ -2010,7 +1969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2018,7 +1977,7 @@
         <v>33</v>
       </c>
       <c r="C26">
-        <v>0.85399999999999998</v>
+        <v>0.854</v>
       </c>
       <c r="D26" t="s">
         <v>286</v>
@@ -2039,7 +1998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2047,7 +2006,7 @@
         <v>34</v>
       </c>
       <c r="C27">
-        <v>0.85399999999999998</v>
+        <v>0.854</v>
       </c>
       <c r="D27" t="s">
         <v>283</v>
@@ -2068,7 +2027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2076,7 +2035,7 @@
         <v>35</v>
       </c>
       <c r="C28">
-        <v>0.83899999999999997</v>
+        <v>0.839</v>
       </c>
       <c r="D28" t="s">
         <v>283</v>
@@ -2097,7 +2056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2105,7 +2064,7 @@
         <v>36</v>
       </c>
       <c r="C29">
-        <v>0.83299999999999996</v>
+        <v>0.833</v>
       </c>
       <c r="D29" t="s">
         <v>284</v>
@@ -2126,7 +2085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2134,7 +2093,7 @@
         <v>37</v>
       </c>
       <c r="C30">
-        <v>0.83299999999999996</v>
+        <v>0.833</v>
       </c>
       <c r="D30" t="s">
         <v>283</v>
@@ -2155,7 +2114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2163,7 +2122,7 @@
         <v>38</v>
       </c>
       <c r="C31">
-        <v>0.83299999999999996</v>
+        <v>0.833</v>
       </c>
       <c r="D31" t="s">
         <v>284</v>
@@ -2184,7 +2143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2192,7 +2151,7 @@
         <v>39</v>
       </c>
       <c r="C32">
-        <v>0.83299999999999996</v>
+        <v>0.833</v>
       </c>
       <c r="D32" t="s">
         <v>283</v>
@@ -2213,7 +2172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2221,7 +2180,7 @@
         <v>40</v>
       </c>
       <c r="C33">
-        <v>0.83299999999999996</v>
+        <v>0.833</v>
       </c>
       <c r="D33" t="s">
         <v>283</v>
@@ -2242,7 +2201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2250,7 +2209,7 @@
         <v>41</v>
       </c>
       <c r="C34">
-        <v>0.83299999999999996</v>
+        <v>0.833</v>
       </c>
       <c r="D34" t="s">
         <v>283</v>
@@ -2271,7 +2230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2279,7 +2238,7 @@
         <v>42</v>
       </c>
       <c r="C35">
-        <v>0.83299999999999996</v>
+        <v>0.833</v>
       </c>
       <c r="D35" t="s">
         <v>283</v>
@@ -2300,7 +2259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2308,7 +2267,7 @@
         <v>43</v>
       </c>
       <c r="C36">
-        <v>0.83299999999999996</v>
+        <v>0.833</v>
       </c>
       <c r="D36" t="s">
         <v>284</v>
@@ -2329,7 +2288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2337,7 +2296,7 @@
         <v>44</v>
       </c>
       <c r="C37">
-        <v>0.83299999999999996</v>
+        <v>0.833</v>
       </c>
       <c r="D37" t="s">
         <v>284</v>
@@ -2358,7 +2317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2366,7 +2325,7 @@
         <v>45</v>
       </c>
       <c r="C38">
-        <v>0.81200000000000006</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="D38" t="s">
         <v>284</v>
@@ -2387,7 +2346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2395,7 +2354,7 @@
         <v>46</v>
       </c>
       <c r="C39">
-        <v>0.81200000000000006</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="D39" t="s">
         <v>283</v>
@@ -2416,7 +2375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2424,7 +2383,7 @@
         <v>47</v>
       </c>
       <c r="C40">
-        <v>0.81200000000000006</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="D40" t="s">
         <v>284</v>
@@ -2445,7 +2404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2453,7 +2412,7 @@
         <v>48</v>
       </c>
       <c r="C41">
-        <v>0.81200000000000006</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="D41" t="s">
         <v>284</v>
@@ -2474,7 +2433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2482,7 +2441,7 @@
         <v>49</v>
       </c>
       <c r="C42">
-        <v>0.81200000000000006</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="D42" t="s">
         <v>283</v>
@@ -2503,7 +2462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2511,7 +2470,7 @@
         <v>50</v>
       </c>
       <c r="C43">
-        <v>0.81200000000000006</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="D43" t="s">
         <v>287</v>
@@ -2532,7 +2491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2540,7 +2499,7 @@
         <v>51</v>
       </c>
       <c r="C44">
-        <v>0.80600000000000005</v>
+        <v>0.806</v>
       </c>
       <c r="D44" t="s">
         <v>284</v>
@@ -2561,7 +2520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2569,7 +2528,7 @@
         <v>52</v>
       </c>
       <c r="C45">
-        <v>0.79200000000000004</v>
+        <v>0.792</v>
       </c>
       <c r="D45" t="s">
         <v>283</v>
@@ -2590,7 +2549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2598,7 +2557,7 @@
         <v>53</v>
       </c>
       <c r="C46">
-        <v>0.79200000000000004</v>
+        <v>0.792</v>
       </c>
       <c r="D46" t="s">
         <v>283</v>
@@ -2619,7 +2578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2627,7 +2586,7 @@
         <v>54</v>
       </c>
       <c r="C47">
-        <v>0.79200000000000004</v>
+        <v>0.792</v>
       </c>
       <c r="D47" t="s">
         <v>283</v>
@@ -2648,7 +2607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2656,7 +2615,7 @@
         <v>55</v>
       </c>
       <c r="C48">
-        <v>0.77900000000000003</v>
+        <v>0.779</v>
       </c>
       <c r="D48" t="s">
         <v>286</v>
@@ -2677,7 +2636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2685,7 +2644,7 @@
         <v>56</v>
       </c>
       <c r="C49">
-        <v>0.77100000000000002</v>
+        <v>0.771</v>
       </c>
       <c r="D49" t="s">
         <v>284</v>
@@ -2706,7 +2665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2714,7 +2673,7 @@
         <v>57</v>
       </c>
       <c r="C50">
-        <v>0.77100000000000002</v>
+        <v>0.771</v>
       </c>
       <c r="D50" t="s">
         <v>284</v>
@@ -2735,7 +2694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2743,7 +2702,7 @@
         <v>58</v>
       </c>
       <c r="C51">
-        <v>0.77100000000000002</v>
+        <v>0.771</v>
       </c>
       <c r="D51" t="s">
         <v>287</v>
@@ -2764,7 +2723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2772,7 +2731,7 @@
         <v>59</v>
       </c>
       <c r="C52">
-        <v>0.77100000000000002</v>
+        <v>0.771</v>
       </c>
       <c r="D52" t="s">
         <v>283</v>
@@ -2793,7 +2752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2801,7 +2760,7 @@
         <v>60</v>
       </c>
       <c r="C53">
-        <v>0.77100000000000002</v>
+        <v>0.771</v>
       </c>
       <c r="D53" t="s">
         <v>287</v>
@@ -2822,7 +2781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2830,7 +2789,7 @@
         <v>61</v>
       </c>
       <c r="C54">
-        <v>0.77100000000000002</v>
+        <v>0.771</v>
       </c>
       <c r="D54" t="s">
         <v>284</v>
@@ -2851,7 +2810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2859,7 +2818,7 @@
         <v>62</v>
       </c>
       <c r="C55">
-        <v>0.77100000000000002</v>
+        <v>0.771</v>
       </c>
       <c r="D55" t="s">
         <v>284</v>
@@ -2880,7 +2839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2888,7 +2847,7 @@
         <v>63</v>
       </c>
       <c r="C56">
-        <v>0.77100000000000002</v>
+        <v>0.771</v>
       </c>
       <c r="D56" t="s">
         <v>286</v>
@@ -2909,7 +2868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2917,7 +2876,7 @@
         <v>64</v>
       </c>
       <c r="C57">
-        <v>0.77100000000000002</v>
+        <v>0.771</v>
       </c>
       <c r="D57" t="s">
         <v>283</v>
@@ -2938,7 +2897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2967,7 +2926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2996,7 +2955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3025,7 +2984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3054,7 +3013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3083,7 +3042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3112,7 +3071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3141,7 +3100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3170,7 +3129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3199,7 +3158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3207,7 +3166,7 @@
         <v>74</v>
       </c>
       <c r="C67">
-        <v>0.72899999999999998</v>
+        <v>0.729</v>
       </c>
       <c r="D67" t="s">
         <v>285</v>
@@ -3228,7 +3187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3236,7 +3195,7 @@
         <v>75</v>
       </c>
       <c r="C68">
-        <v>0.72899999999999998</v>
+        <v>0.729</v>
       </c>
       <c r="D68" t="s">
         <v>283</v>
@@ -3257,7 +3216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3265,7 +3224,7 @@
         <v>76</v>
       </c>
       <c r="C69">
-        <v>0.72899999999999998</v>
+        <v>0.729</v>
       </c>
       <c r="D69" t="s">
         <v>283</v>
@@ -3286,7 +3245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3294,7 +3253,7 @@
         <v>77</v>
       </c>
       <c r="C70">
-        <v>0.72899999999999998</v>
+        <v>0.729</v>
       </c>
       <c r="D70" t="s">
         <v>285</v>
@@ -3315,7 +3274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3323,7 +3282,7 @@
         <v>78</v>
       </c>
       <c r="C71">
-        <v>0.72899999999999998</v>
+        <v>0.729</v>
       </c>
       <c r="D71" t="s">
         <v>284</v>
@@ -3344,7 +3303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3352,7 +3311,7 @@
         <v>79</v>
       </c>
       <c r="C72">
-        <v>0.72899999999999998</v>
+        <v>0.729</v>
       </c>
       <c r="D72" t="s">
         <v>283</v>
@@ -3373,7 +3332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3402,7 +3361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3431,7 +3390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3460,7 +3419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3489,7 +3448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3518,7 +3477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3547,7 +3506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3555,7 +3514,7 @@
         <v>86</v>
       </c>
       <c r="C79">
-        <v>0.61799999999999999</v>
+        <v>0.618</v>
       </c>
       <c r="D79" t="s">
         <v>284</v>
@@ -3576,7 +3535,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3584,7 +3543,7 @@
         <v>87</v>
       </c>
       <c r="C80">
-        <v>0.60399999999999998</v>
+        <v>0.604</v>
       </c>
       <c r="D80" t="s">
         <v>283</v>
@@ -3605,7 +3564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3613,7 +3572,7 @@
         <v>88</v>
       </c>
       <c r="C81">
-        <v>0.60399999999999998</v>
+        <v>0.604</v>
       </c>
       <c r="D81" t="s">
         <v>284</v>
@@ -3634,7 +3593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3642,7 +3601,7 @@
         <v>89</v>
       </c>
       <c r="C82">
-        <v>0.60399999999999998</v>
+        <v>0.604</v>
       </c>
       <c r="D82" t="s">
         <v>284</v>
@@ -3663,7 +3622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3671,7 +3630,7 @@
         <v>90</v>
       </c>
       <c r="C83">
-        <v>0.60399999999999998</v>
+        <v>0.604</v>
       </c>
       <c r="D83" t="s">
         <v>285</v>
@@ -3692,7 +3651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3700,7 +3659,7 @@
         <v>91</v>
       </c>
       <c r="C84">
-        <v>0.60399999999999998</v>
+        <v>0.604</v>
       </c>
       <c r="D84" t="s">
         <v>284</v>
@@ -3721,7 +3680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3729,7 +3688,7 @@
         <v>92</v>
       </c>
       <c r="C85">
-        <v>0.60399999999999998</v>
+        <v>0.604</v>
       </c>
       <c r="D85" t="s">
         <v>284</v>
@@ -3750,7 +3709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3758,7 +3717,7 @@
         <v>93</v>
       </c>
       <c r="C86">
-        <v>0.58299999999999996</v>
+        <v>0.583</v>
       </c>
       <c r="D86" t="s">
         <v>284</v>
@@ -3779,7 +3738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3787,7 +3746,7 @@
         <v>94</v>
       </c>
       <c r="C87">
-        <v>0.58299999999999996</v>
+        <v>0.583</v>
       </c>
       <c r="D87" t="s">
         <v>283</v>
@@ -3808,7 +3767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3816,7 +3775,7 @@
         <v>95</v>
       </c>
       <c r="C88">
-        <v>0.58299999999999996</v>
+        <v>0.583</v>
       </c>
       <c r="D88" t="s">
         <v>284</v>
@@ -3837,7 +3796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3845,7 +3804,7 @@
         <v>96</v>
       </c>
       <c r="C89">
-        <v>0.58299999999999996</v>
+        <v>0.583</v>
       </c>
       <c r="D89" t="s">
         <v>283</v>
@@ -3866,7 +3825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3874,7 +3833,7 @@
         <v>97</v>
       </c>
       <c r="C90">
-        <v>0.58299999999999996</v>
+        <v>0.583</v>
       </c>
       <c r="D90" t="s">
         <v>285</v>
@@ -3895,7 +3854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3903,7 +3862,7 @@
         <v>98</v>
       </c>
       <c r="C91">
-        <v>0.57499999999999996</v>
+        <v>0.575</v>
       </c>
       <c r="D91" t="s">
         <v>287</v>
@@ -3924,7 +3883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3932,7 +3891,7 @@
         <v>99</v>
       </c>
       <c r="C92">
-        <v>0.57399999999999995</v>
+        <v>0.574</v>
       </c>
       <c r="D92" t="s">
         <v>288</v>
@@ -3953,7 +3912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3961,7 +3920,7 @@
         <v>100</v>
       </c>
       <c r="C93">
-        <v>0.56200000000000006</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="D93" t="s">
         <v>287</v>
@@ -3982,7 +3941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3990,7 +3949,7 @@
         <v>101</v>
       </c>
       <c r="C94">
-        <v>0.56200000000000006</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="D94" t="s">
         <v>283</v>
@@ -4011,7 +3970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -4019,7 +3978,7 @@
         <v>102</v>
       </c>
       <c r="C95">
-        <v>0.56200000000000006</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="D95" t="s">
         <v>284</v>
@@ -4040,7 +3999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -4048,7 +4007,7 @@
         <v>103</v>
       </c>
       <c r="C96">
-        <v>0.47899999999999998</v>
+        <v>0.479</v>
       </c>
       <c r="D96" t="s">
         <v>284</v>
@@ -4069,7 +4028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -4077,7 +4036,7 @@
         <v>104</v>
       </c>
       <c r="C97">
-        <v>0.47899999999999998</v>
+        <v>0.479</v>
       </c>
       <c r="D97" t="s">
         <v>284</v>
@@ -4098,7 +4057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -4106,7 +4065,7 @@
         <v>105</v>
       </c>
       <c r="C98">
-        <v>0.47699999999999998</v>
+        <v>0.477</v>
       </c>
       <c r="D98" t="s">
         <v>283</v>
@@ -4127,7 +4086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -4135,7 +4094,7 @@
         <v>106</v>
       </c>
       <c r="C99">
-        <v>0.46400000000000002</v>
+        <v>0.464</v>
       </c>
       <c r="D99" t="s">
         <v>284</v>
@@ -4156,7 +4115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -4164,7 +4123,7 @@
         <v>107</v>
       </c>
       <c r="C100">
-        <v>0.46100000000000002</v>
+        <v>0.461</v>
       </c>
       <c r="D100" t="s">
         <v>284</v>
@@ -4185,7 +4144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -4193,7 +4152,7 @@
         <v>108</v>
       </c>
       <c r="C101">
-        <v>0.45800000000000002</v>
+        <v>0.458</v>
       </c>
       <c r="D101" t="s">
         <v>288</v>
@@ -4214,7 +4173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -4222,7 +4181,7 @@
         <v>109</v>
       </c>
       <c r="C102">
-        <v>0.45800000000000002</v>
+        <v>0.458</v>
       </c>
       <c r="D102" t="s">
         <v>283</v>
@@ -4243,7 +4202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -4251,7 +4210,7 @@
         <v>110</v>
       </c>
       <c r="C103">
-        <v>0.45800000000000002</v>
+        <v>0.458</v>
       </c>
       <c r="D103" t="s">
         <v>284</v>
@@ -4272,7 +4231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -4280,7 +4239,7 @@
         <v>111</v>
       </c>
       <c r="C104">
-        <v>0.45800000000000002</v>
+        <v>0.458</v>
       </c>
       <c r="D104" t="s">
         <v>287</v>
@@ -4301,7 +4260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -4330,7 +4289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -4359,7 +4318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -4367,7 +4326,7 @@
         <v>114</v>
       </c>
       <c r="C107">
-        <v>0.41699999999999998</v>
+        <v>0.417</v>
       </c>
       <c r="D107" t="s">
         <v>284</v>
@@ -4388,7 +4347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -4396,7 +4355,7 @@
         <v>115</v>
       </c>
       <c r="C108">
-        <v>0.41699999999999998</v>
+        <v>0.417</v>
       </c>
       <c r="D108" t="s">
         <v>287</v>
@@ -4417,7 +4376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -4425,7 +4384,7 @@
         <v>116</v>
       </c>
       <c r="C109">
-        <v>0.72899999999999998</v>
+        <v>0.729</v>
       </c>
       <c r="D109" t="s">
         <v>287</v>
@@ -4440,13 +4399,13 @@
         <v>5</v>
       </c>
       <c r="H109" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I109">
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -4454,7 +4413,7 @@
         <v>117</v>
       </c>
       <c r="C110">
-        <v>0.72899999999999998</v>
+        <v>0.729</v>
       </c>
       <c r="D110" t="s">
         <v>284</v>
@@ -4469,13 +4428,13 @@
         <v>5</v>
       </c>
       <c r="H110" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I110">
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -4483,7 +4442,7 @@
         <v>118</v>
       </c>
       <c r="C111">
-        <v>0.72899999999999998</v>
+        <v>0.729</v>
       </c>
       <c r="D111" t="s">
         <v>283</v>
@@ -4498,13 +4457,13 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="I111">
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -4512,7 +4471,7 @@
         <v>119</v>
       </c>
       <c r="C112">
-        <v>0.72899999999999998</v>
+        <v>0.729</v>
       </c>
       <c r="D112" t="s">
         <v>283</v>
@@ -4527,13 +4486,13 @@
         <v>4</v>
       </c>
       <c r="H112" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="I112">
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -4541,7 +4500,7 @@
         <v>120</v>
       </c>
       <c r="C113">
-        <v>0.72899999999999998</v>
+        <v>0.729</v>
       </c>
       <c r="D113" t="s">
         <v>287</v>
@@ -4556,13 +4515,13 @@
         <v>4</v>
       </c>
       <c r="H113" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I113">
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -4570,7 +4529,7 @@
         <v>121</v>
       </c>
       <c r="C114">
-        <v>0.72899999999999998</v>
+        <v>0.729</v>
       </c>
       <c r="D114" t="s">
         <v>284</v>
@@ -4585,13 +4544,13 @@
         <v>2</v>
       </c>
       <c r="H114" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="I114">
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -4599,7 +4558,7 @@
         <v>122</v>
       </c>
       <c r="C115">
-        <v>0.72899999999999998</v>
+        <v>0.729</v>
       </c>
       <c r="D115" t="s">
         <v>283</v>
@@ -4614,13 +4573,13 @@
         <v>2</v>
       </c>
       <c r="H115" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I115">
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -4628,7 +4587,7 @@
         <v>123</v>
       </c>
       <c r="C116">
-        <v>0.72899999999999998</v>
+        <v>0.729</v>
       </c>
       <c r="D116" t="s">
         <v>283</v>
@@ -4643,13 +4602,13 @@
         <v>3</v>
       </c>
       <c r="H116" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I116">
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -4657,7 +4616,7 @@
         <v>124</v>
       </c>
       <c r="C117">
-        <v>0.72899999999999998</v>
+        <v>0.729</v>
       </c>
       <c r="D117" t="s">
         <v>284</v>
@@ -4678,7 +4637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -4686,7 +4645,7 @@
         <v>125</v>
       </c>
       <c r="C118">
-        <v>0.72899999999999998</v>
+        <v>0.729</v>
       </c>
       <c r="D118" t="s">
         <v>284</v>
@@ -4701,13 +4660,13 @@
         <v>1</v>
       </c>
       <c r="H118" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="I118">
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -4715,7 +4674,7 @@
         <v>126</v>
       </c>
       <c r="C119">
-        <v>0.72899999999999998</v>
+        <v>0.729</v>
       </c>
       <c r="D119" t="s">
         <v>283</v>
@@ -4730,13 +4689,13 @@
         <v>1</v>
       </c>
       <c r="H119" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="I119">
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -4744,7 +4703,7 @@
         <v>127</v>
       </c>
       <c r="C120">
-        <v>0.72899999999999998</v>
+        <v>0.729</v>
       </c>
       <c r="D120" t="s">
         <v>284</v>
@@ -4759,13 +4718,13 @@
         <v>3</v>
       </c>
       <c r="H120" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="I120">
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -4773,7 +4732,7 @@
         <v>128</v>
       </c>
       <c r="C121">
-        <v>0.70799999999999996</v>
+        <v>0.708</v>
       </c>
       <c r="D121" t="s">
         <v>283</v>
@@ -4794,7 +4753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -4802,7 +4761,7 @@
         <v>129</v>
       </c>
       <c r="C122">
-        <v>0.70799999999999996</v>
+        <v>0.708</v>
       </c>
       <c r="D122" t="s">
         <v>286</v>
@@ -4823,7 +4782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -4831,7 +4790,7 @@
         <v>130</v>
       </c>
       <c r="C123">
-        <v>0.70799999999999996</v>
+        <v>0.708</v>
       </c>
       <c r="D123" t="s">
         <v>284</v>
@@ -4846,13 +4805,13 @@
         <v>1</v>
       </c>
       <c r="H123" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="I123">
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -4860,7 +4819,7 @@
         <v>131</v>
       </c>
       <c r="C124">
-        <v>0.70799999999999996</v>
+        <v>0.708</v>
       </c>
       <c r="D124" t="s">
         <v>283</v>
@@ -4875,13 +4834,13 @@
         <v>3</v>
       </c>
       <c r="H124" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="I124">
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -4889,7 +4848,7 @@
         <v>132</v>
       </c>
       <c r="C125">
-        <v>0.70799999999999996</v>
+        <v>0.708</v>
       </c>
       <c r="D125" t="s">
         <v>283</v>
@@ -4904,13 +4863,13 @@
         <v>2</v>
       </c>
       <c r="H125" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="I125">
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -4918,7 +4877,7 @@
         <v>133</v>
       </c>
       <c r="C126">
-        <v>0.70799999999999996</v>
+        <v>0.708</v>
       </c>
       <c r="D126" t="s">
         <v>287</v>
@@ -4933,13 +4892,13 @@
         <v>4</v>
       </c>
       <c r="H126" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="I126">
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -4947,7 +4906,7 @@
         <v>134</v>
       </c>
       <c r="C127">
-        <v>0.70799999999999996</v>
+        <v>0.708</v>
       </c>
       <c r="D127" t="s">
         <v>283</v>
@@ -4962,13 +4921,13 @@
         <v>1</v>
       </c>
       <c r="H127" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I127">
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -4976,7 +4935,7 @@
         <v>135</v>
       </c>
       <c r="C128">
-        <v>0.70799999999999996</v>
+        <v>0.708</v>
       </c>
       <c r="D128" t="s">
         <v>287</v>
@@ -4997,7 +4956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -5005,7 +4964,7 @@
         <v>136</v>
       </c>
       <c r="C129">
-        <v>0.70799999999999996</v>
+        <v>0.708</v>
       </c>
       <c r="D129" t="s">
         <v>284</v>
@@ -5020,13 +4979,13 @@
         <v>1</v>
       </c>
       <c r="H129" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="I129">
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -5034,7 +4993,7 @@
         <v>137</v>
       </c>
       <c r="C130">
-        <v>0.70799999999999996</v>
+        <v>0.708</v>
       </c>
       <c r="D130" t="s">
         <v>283</v>
@@ -5049,13 +5008,13 @@
         <v>2</v>
       </c>
       <c r="H130" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="I130">
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -5063,7 +5022,7 @@
         <v>138</v>
       </c>
       <c r="C131">
-        <v>0.70799999999999996</v>
+        <v>0.708</v>
       </c>
       <c r="D131" t="s">
         <v>283</v>
@@ -5078,13 +5037,13 @@
         <v>5</v>
       </c>
       <c r="H131" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="I131">
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -5092,7 +5051,7 @@
         <v>139</v>
       </c>
       <c r="C132">
-        <v>0.70799999999999996</v>
+        <v>0.708</v>
       </c>
       <c r="D132" t="s">
         <v>283</v>
@@ -5107,13 +5066,13 @@
         <v>3</v>
       </c>
       <c r="H132" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="I132">
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -5121,7 +5080,7 @@
         <v>140</v>
       </c>
       <c r="C133">
-        <v>0.68899999999999995</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="D133" t="s">
         <v>283</v>
@@ -5136,13 +5095,13 @@
         <v>3</v>
       </c>
       <c r="H133" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="I133">
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -5150,7 +5109,7 @@
         <v>141</v>
       </c>
       <c r="C134">
-        <v>0.68799999999999994</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="D134" t="s">
         <v>283</v>
@@ -5165,13 +5124,13 @@
         <v>1</v>
       </c>
       <c r="H134" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="I134">
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -5179,7 +5138,7 @@
         <v>142</v>
       </c>
       <c r="C135">
-        <v>0.68799999999999994</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="D135" t="s">
         <v>283</v>
@@ -5194,13 +5153,13 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="I135">
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -5208,7 +5167,7 @@
         <v>143</v>
       </c>
       <c r="C136">
-        <v>0.68799999999999994</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="D136" t="s">
         <v>283</v>
@@ -5223,13 +5182,13 @@
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I136">
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -5237,7 +5196,7 @@
         <v>144</v>
       </c>
       <c r="C137">
-        <v>0.68799999999999994</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="D137" t="s">
         <v>283</v>
@@ -5252,13 +5211,13 @@
         <v>3</v>
       </c>
       <c r="H137" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="I137">
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -5266,7 +5225,7 @@
         <v>145</v>
       </c>
       <c r="C138">
-        <v>0.68799999999999994</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="D138" t="s">
         <v>283</v>
@@ -5281,13 +5240,13 @@
         <v>3</v>
       </c>
       <c r="H138" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="I138">
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -5295,7 +5254,7 @@
         <v>146</v>
       </c>
       <c r="C139">
-        <v>0.68799999999999994</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="D139" t="s">
         <v>284</v>
@@ -5310,13 +5269,13 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="I139">
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -5324,7 +5283,7 @@
         <v>147</v>
       </c>
       <c r="C140">
-        <v>0.68799999999999994</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="D140" t="s">
         <v>284</v>
@@ -5339,13 +5298,13 @@
         <v>3</v>
       </c>
       <c r="H140" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="I140">
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -5353,7 +5312,7 @@
         <v>148</v>
       </c>
       <c r="C141">
-        <v>0.68799999999999994</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="D141" t="s">
         <v>284</v>
@@ -5368,13 +5327,13 @@
         <v>3</v>
       </c>
       <c r="H141" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="I141">
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -5382,7 +5341,7 @@
         <v>149</v>
       </c>
       <c r="C142">
-        <v>0.68799999999999994</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="D142" t="s">
         <v>287</v>
@@ -5397,13 +5356,13 @@
         <v>1</v>
       </c>
       <c r="H142" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="I142">
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -5411,7 +5370,7 @@
         <v>150</v>
       </c>
       <c r="C143">
-        <v>0.68799999999999994</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="D143" t="s">
         <v>284</v>
@@ -5426,13 +5385,13 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="I143">
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -5440,7 +5399,7 @@
         <v>151</v>
       </c>
       <c r="C144">
-        <v>0.68799999999999994</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="D144" t="s">
         <v>284</v>
@@ -5455,13 +5414,13 @@
         <v>2</v>
       </c>
       <c r="H144" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="I144">
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -5469,7 +5428,7 @@
         <v>152</v>
       </c>
       <c r="C145">
-        <v>0.68799999999999994</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="D145" t="s">
         <v>284</v>
@@ -5484,13 +5443,13 @@
         <v>2</v>
       </c>
       <c r="H145" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="I145">
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -5498,7 +5457,7 @@
         <v>153</v>
       </c>
       <c r="C146">
-        <v>0.68799999999999994</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="D146" t="s">
         <v>283</v>
@@ -5513,13 +5472,13 @@
         <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="I146">
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -5527,7 +5486,7 @@
         <v>154</v>
       </c>
       <c r="C147">
-        <v>0.68799999999999994</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="D147" t="s">
         <v>283</v>
@@ -5542,13 +5501,13 @@
         <v>1</v>
       </c>
       <c r="H147" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="I147">
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -5556,7 +5515,7 @@
         <v>155</v>
       </c>
       <c r="C148">
-        <v>0.68799999999999994</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="D148" t="s">
         <v>284</v>
@@ -5571,13 +5530,13 @@
         <v>2</v>
       </c>
       <c r="H148" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="I148">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -5585,7 +5544,7 @@
         <v>156</v>
       </c>
       <c r="C149">
-        <v>0.68799999999999994</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="D149" t="s">
         <v>287</v>
@@ -5600,13 +5559,13 @@
         <v>1</v>
       </c>
       <c r="H149" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="I149">
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -5614,7 +5573,7 @@
         <v>157</v>
       </c>
       <c r="C150">
-        <v>0.68799999999999994</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="D150" t="s">
         <v>284</v>
@@ -5629,13 +5588,13 @@
         <v>1</v>
       </c>
       <c r="H150" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="I150">
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -5643,7 +5602,7 @@
         <v>158</v>
       </c>
       <c r="C151">
-        <v>0.68799999999999994</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="D151" t="s">
         <v>284</v>
@@ -5658,13 +5617,13 @@
         <v>3</v>
       </c>
       <c r="H151" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="I151">
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -5687,13 +5646,13 @@
         <v>2</v>
       </c>
       <c r="H152" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="I152">
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -5716,13 +5675,13 @@
         <v>2</v>
       </c>
       <c r="H153" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="I153">
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -5730,7 +5689,7 @@
         <v>161</v>
       </c>
       <c r="C154">
-        <v>0.67500000000000004</v>
+        <v>0.675</v>
       </c>
       <c r="D154" t="s">
         <v>283</v>
@@ -5745,13 +5704,13 @@
         <v>2</v>
       </c>
       <c r="H154" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="I154">
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -5774,13 +5733,13 @@
         <v>2</v>
       </c>
       <c r="H155" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="I155">
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -5788,7 +5747,7 @@
         <v>163</v>
       </c>
       <c r="C156">
-        <v>0.66900000000000004</v>
+        <v>0.669</v>
       </c>
       <c r="D156" t="s">
         <v>283</v>
@@ -5803,13 +5762,13 @@
         <v>1</v>
       </c>
       <c r="H156" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="I156">
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -5817,7 +5776,7 @@
         <v>164</v>
       </c>
       <c r="C157">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="D157" t="s">
         <v>283</v>
@@ -5832,13 +5791,13 @@
         <v>1</v>
       </c>
       <c r="H157" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="I157">
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -5846,7 +5805,7 @@
         <v>165</v>
       </c>
       <c r="C158">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="D158" t="s">
         <v>284</v>
@@ -5861,13 +5820,13 @@
         <v>2</v>
       </c>
       <c r="H158" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="I158">
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -5875,7 +5834,7 @@
         <v>166</v>
       </c>
       <c r="C159">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="D159" t="s">
         <v>285</v>
@@ -5890,13 +5849,13 @@
         <v>3</v>
       </c>
       <c r="H159" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="I159">
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -5904,7 +5863,7 @@
         <v>167</v>
       </c>
       <c r="C160">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="D160" t="s">
         <v>286</v>
@@ -5919,13 +5878,13 @@
         <v>2</v>
       </c>
       <c r="H160" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="I160">
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -5933,7 +5892,7 @@
         <v>168</v>
       </c>
       <c r="C161">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="D161" t="s">
         <v>287</v>
@@ -5948,13 +5907,13 @@
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="I161">
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -5962,7 +5921,7 @@
         <v>169</v>
       </c>
       <c r="C162">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="D162" t="s">
         <v>287</v>
@@ -5977,13 +5936,13 @@
         <v>2</v>
       </c>
       <c r="H162" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="I162">
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -5991,7 +5950,7 @@
         <v>170</v>
       </c>
       <c r="C163">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="D163" t="s">
         <v>284</v>
@@ -6006,13 +5965,13 @@
         <v>1</v>
       </c>
       <c r="H163" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="I163">
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -6020,7 +5979,7 @@
         <v>171</v>
       </c>
       <c r="C164">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="D164" t="s">
         <v>284</v>
@@ -6035,13 +5994,13 @@
         <v>3</v>
       </c>
       <c r="H164" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="I164">
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -6049,7 +6008,7 @@
         <v>172</v>
       </c>
       <c r="C165">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="D165" t="s">
         <v>283</v>
@@ -6064,13 +6023,13 @@
         <v>1</v>
       </c>
       <c r="H165" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="I165">
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -6078,7 +6037,7 @@
         <v>173</v>
       </c>
       <c r="C166">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="D166" t="s">
         <v>284</v>
@@ -6093,13 +6052,13 @@
         <v>2</v>
       </c>
       <c r="H166" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="I166">
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -6107,7 +6066,7 @@
         <v>174</v>
       </c>
       <c r="C167">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="D167" t="s">
         <v>284</v>
@@ -6122,13 +6081,13 @@
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="I167">
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -6136,7 +6095,7 @@
         <v>175</v>
       </c>
       <c r="C168">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="D168" t="s">
         <v>283</v>
@@ -6151,13 +6110,13 @@
         <v>2</v>
       </c>
       <c r="H168" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="I168">
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -6165,7 +6124,7 @@
         <v>176</v>
       </c>
       <c r="C169">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="D169" t="s">
         <v>283</v>
@@ -6180,13 +6139,13 @@
         <v>2</v>
       </c>
       <c r="H169" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="I169">
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -6194,7 +6153,7 @@
         <v>177</v>
       </c>
       <c r="C170">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="D170" t="s">
         <v>283</v>
@@ -6209,13 +6168,13 @@
         <v>1</v>
       </c>
       <c r="H170" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="I170">
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -6223,7 +6182,7 @@
         <v>178</v>
       </c>
       <c r="C171">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="D171" t="s">
         <v>283</v>
@@ -6238,13 +6197,13 @@
         <v>2</v>
       </c>
       <c r="H171" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="I171">
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -6252,7 +6211,7 @@
         <v>179</v>
       </c>
       <c r="C172">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="D172" t="s">
         <v>283</v>
@@ -6267,13 +6226,13 @@
         <v>2</v>
       </c>
       <c r="H172" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="I172">
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -6281,7 +6240,7 @@
         <v>180</v>
       </c>
       <c r="C173">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="D173" t="s">
         <v>287</v>
@@ -6296,13 +6255,13 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="I173">
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -6310,7 +6269,7 @@
         <v>181</v>
       </c>
       <c r="C174">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="D174" t="s">
         <v>287</v>
@@ -6325,13 +6284,13 @@
         <v>1</v>
       </c>
       <c r="H174" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="I174">
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -6339,7 +6298,7 @@
         <v>182</v>
       </c>
       <c r="C175">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="D175" t="s">
         <v>284</v>
@@ -6354,13 +6313,13 @@
         <v>1</v>
       </c>
       <c r="H175" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="I175">
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -6368,7 +6327,7 @@
         <v>183</v>
       </c>
       <c r="C176">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="D176" t="s">
         <v>283</v>
@@ -6383,13 +6342,13 @@
         <v>3</v>
       </c>
       <c r="H176" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="I176">
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -6397,7 +6356,7 @@
         <v>184</v>
       </c>
       <c r="C177">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="D177" t="s">
         <v>283</v>
@@ -6412,13 +6371,13 @@
         <v>2</v>
       </c>
       <c r="H177" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="I177">
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -6426,7 +6385,7 @@
         <v>185</v>
       </c>
       <c r="C178">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="D178" t="s">
         <v>283</v>
@@ -6441,13 +6400,13 @@
         <v>3</v>
       </c>
       <c r="H178" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="I178">
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -6455,7 +6414,7 @@
         <v>186</v>
       </c>
       <c r="C179">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="D179" t="s">
         <v>284</v>
@@ -6470,13 +6429,13 @@
         <v>2</v>
       </c>
       <c r="H179" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="I179">
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -6484,7 +6443,7 @@
         <v>187</v>
       </c>
       <c r="C180">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="D180" t="s">
         <v>285</v>
@@ -6499,13 +6458,13 @@
         <v>1</v>
       </c>
       <c r="H180" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="I180">
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -6513,7 +6472,7 @@
         <v>188</v>
       </c>
       <c r="C181">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="D181" t="s">
         <v>284</v>
@@ -6528,13 +6487,13 @@
         <v>2</v>
       </c>
       <c r="H181" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="I181">
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -6542,7 +6501,7 @@
         <v>189</v>
       </c>
       <c r="C182">
-        <v>0.66100000000000003</v>
+        <v>0.661</v>
       </c>
       <c r="D182" t="s">
         <v>283</v>
@@ -6557,13 +6516,13 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="I182">
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -6571,7 +6530,7 @@
         <v>190</v>
       </c>
       <c r="C183">
-        <v>0.65400000000000003</v>
+        <v>0.654</v>
       </c>
       <c r="D183" t="s">
         <v>286</v>
@@ -6592,7 +6551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -6600,7 +6559,7 @@
         <v>191</v>
       </c>
       <c r="C184">
-        <v>0.65300000000000002</v>
+        <v>0.653</v>
       </c>
       <c r="D184" t="s">
         <v>283</v>
@@ -6615,13 +6574,13 @@
         <v>4</v>
       </c>
       <c r="H184" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="I184">
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -6629,7 +6588,7 @@
         <v>192</v>
       </c>
       <c r="C185">
-        <v>0.64600000000000002</v>
+        <v>0.646</v>
       </c>
       <c r="D185" t="s">
         <v>283</v>
@@ -6644,13 +6603,13 @@
         <v>2</v>
       </c>
       <c r="H185" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="I185">
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -6658,7 +6617,7 @@
         <v>193</v>
       </c>
       <c r="C186">
-        <v>0.64600000000000002</v>
+        <v>0.646</v>
       </c>
       <c r="D186" t="s">
         <v>284</v>
@@ -6673,13 +6632,13 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="I186">
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -6687,7 +6646,7 @@
         <v>194</v>
       </c>
       <c r="C187">
-        <v>0.64600000000000002</v>
+        <v>0.646</v>
       </c>
       <c r="D187" t="s">
         <v>285</v>
@@ -6702,13 +6661,13 @@
         <v>2</v>
       </c>
       <c r="H187" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="I187">
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -6716,7 +6675,7 @@
         <v>195</v>
       </c>
       <c r="C188">
-        <v>0.64600000000000002</v>
+        <v>0.646</v>
       </c>
       <c r="D188" t="s">
         <v>284</v>
@@ -6731,13 +6690,13 @@
         <v>3</v>
       </c>
       <c r="H188" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="I188">
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -6745,7 +6704,7 @@
         <v>196</v>
       </c>
       <c r="C189">
-        <v>0.64600000000000002</v>
+        <v>0.646</v>
       </c>
       <c r="D189" t="s">
         <v>283</v>
@@ -6760,13 +6719,13 @@
         <v>2</v>
       </c>
       <c r="H189" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="I189">
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -6774,7 +6733,7 @@
         <v>197</v>
       </c>
       <c r="C190">
-        <v>0.64600000000000002</v>
+        <v>0.646</v>
       </c>
       <c r="D190" t="s">
         <v>284</v>
@@ -6789,13 +6748,13 @@
         <v>2</v>
       </c>
       <c r="H190" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="I190">
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -6803,7 +6762,7 @@
         <v>198</v>
       </c>
       <c r="C191">
-        <v>0.64600000000000002</v>
+        <v>0.646</v>
       </c>
       <c r="D191" t="s">
         <v>283</v>
@@ -6818,13 +6777,13 @@
         <v>2</v>
       </c>
       <c r="H191" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="I191">
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -6832,7 +6791,7 @@
         <v>199</v>
       </c>
       <c r="C192">
-        <v>0.64600000000000002</v>
+        <v>0.646</v>
       </c>
       <c r="D192" t="s">
         <v>283</v>
@@ -6847,13 +6806,13 @@
         <v>2</v>
       </c>
       <c r="H192" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="I192">
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -6861,7 +6820,7 @@
         <v>200</v>
       </c>
       <c r="C193">
-        <v>0.64600000000000002</v>
+        <v>0.646</v>
       </c>
       <c r="D193" t="s">
         <v>284</v>
@@ -6876,13 +6835,13 @@
         <v>1</v>
       </c>
       <c r="H193" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="I193">
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -6890,7 +6849,7 @@
         <v>201</v>
       </c>
       <c r="C194">
-        <v>0.64600000000000002</v>
+        <v>0.646</v>
       </c>
       <c r="D194" t="s">
         <v>285</v>
@@ -6905,13 +6864,13 @@
         <v>3</v>
       </c>
       <c r="H194" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="I194">
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -6919,7 +6878,7 @@
         <v>202</v>
       </c>
       <c r="C195">
-        <v>0.64600000000000002</v>
+        <v>0.646</v>
       </c>
       <c r="D195" t="s">
         <v>284</v>
@@ -6934,13 +6893,13 @@
         <v>1</v>
       </c>
       <c r="H195" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="I195">
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -6963,13 +6922,13 @@
         <v>2</v>
       </c>
       <c r="H196" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="I196">
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -6977,7 +6936,7 @@
         <v>204</v>
       </c>
       <c r="C197">
-        <v>0.56200000000000006</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="D197" t="s">
         <v>284</v>
@@ -6992,13 +6951,13 @@
         <v>1</v>
       </c>
       <c r="H197" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="I197">
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -7006,7 +6965,7 @@
         <v>205</v>
       </c>
       <c r="C198">
-        <v>0.56200000000000006</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="D198" t="s">
         <v>283</v>
@@ -7021,13 +6980,13 @@
         <v>3</v>
       </c>
       <c r="H198" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="I198">
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -7035,7 +6994,7 @@
         <v>206</v>
       </c>
       <c r="C199">
-        <v>0.56200000000000006</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="D199" t="s">
         <v>283</v>
@@ -7050,13 +7009,13 @@
         <v>2</v>
       </c>
       <c r="H199" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="I199">
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -7064,7 +7023,7 @@
         <v>207</v>
       </c>
       <c r="C200">
-        <v>0.56100000000000005</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="D200" t="s">
         <v>283</v>
@@ -7079,13 +7038,13 @@
         <v>1</v>
       </c>
       <c r="H200" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="I200">
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -7093,7 +7052,7 @@
         <v>208</v>
       </c>
       <c r="C201">
-        <v>0.54800000000000004</v>
+        <v>0.548</v>
       </c>
       <c r="D201" t="s">
         <v>284</v>
@@ -7108,13 +7067,13 @@
         <v>2</v>
       </c>
       <c r="H201" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="I201">
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -7122,7 +7081,7 @@
         <v>209</v>
       </c>
       <c r="C202">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="D202" t="s">
         <v>283</v>
@@ -7137,13 +7096,13 @@
         <v>2</v>
       </c>
       <c r="H202" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="I202">
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -7151,7 +7110,7 @@
         <v>210</v>
       </c>
       <c r="C203">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="D203" t="s">
         <v>284</v>
@@ -7172,7 +7131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -7180,7 +7139,7 @@
         <v>211</v>
       </c>
       <c r="C204">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="D204" t="s">
         <v>284</v>
@@ -7195,13 +7154,13 @@
         <v>3</v>
       </c>
       <c r="H204" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="I204">
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -7209,7 +7168,7 @@
         <v>212</v>
       </c>
       <c r="C205">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="D205" t="s">
         <v>284</v>
@@ -7224,13 +7183,13 @@
         <v>2</v>
       </c>
       <c r="H205" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="I205">
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -7238,7 +7197,7 @@
         <v>213</v>
       </c>
       <c r="C206">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="D206" t="s">
         <v>284</v>
@@ -7253,13 +7212,13 @@
         <v>3</v>
       </c>
       <c r="H206" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="I206">
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -7267,7 +7226,7 @@
         <v>214</v>
       </c>
       <c r="C207">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="D207" t="s">
         <v>284</v>
@@ -7282,13 +7241,13 @@
         <v>2</v>
       </c>
       <c r="H207" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="I207">
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -7296,7 +7255,7 @@
         <v>215</v>
       </c>
       <c r="C208">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="D208" t="s">
         <v>286</v>
@@ -7317,7 +7276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -7325,7 +7284,7 @@
         <v>216</v>
       </c>
       <c r="C209">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="D209" t="s">
         <v>283</v>
@@ -7346,7 +7305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -7354,7 +7313,7 @@
         <v>217</v>
       </c>
       <c r="C210">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="D210" t="s">
         <v>284</v>
@@ -7375,7 +7334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -7383,7 +7342,7 @@
         <v>218</v>
       </c>
       <c r="C211">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="D211" t="s">
         <v>284</v>
@@ -7404,7 +7363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -7412,7 +7371,7 @@
         <v>219</v>
       </c>
       <c r="C212">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="D212" t="s">
         <v>287</v>
@@ -7433,7 +7392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -7441,7 +7400,7 @@
         <v>220</v>
       </c>
       <c r="C213">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="D213" t="s">
         <v>284</v>
@@ -7462,7 +7421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -7470,7 +7429,7 @@
         <v>221</v>
       </c>
       <c r="C214">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="D214" t="s">
         <v>284</v>
@@ -7491,7 +7450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -7499,7 +7458,7 @@
         <v>222</v>
       </c>
       <c r="C215">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="D215" t="s">
         <v>284</v>
@@ -7520,7 +7479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -7528,7 +7487,7 @@
         <v>223</v>
       </c>
       <c r="C216">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="D216" t="s">
         <v>283</v>
@@ -7549,7 +7508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -7557,7 +7516,7 @@
         <v>224</v>
       </c>
       <c r="C217">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="D217" t="s">
         <v>287</v>
@@ -7578,7 +7537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -7586,7 +7545,7 @@
         <v>225</v>
       </c>
       <c r="C218">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="D218" t="s">
         <v>283</v>
@@ -7607,7 +7566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -7615,7 +7574,7 @@
         <v>226</v>
       </c>
       <c r="C219">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="D219" t="s">
         <v>284</v>
@@ -7636,7 +7595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -7644,7 +7603,7 @@
         <v>227</v>
       </c>
       <c r="C220">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="D220" t="s">
         <v>285</v>
@@ -7665,7 +7624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -7673,7 +7632,7 @@
         <v>228</v>
       </c>
       <c r="C221">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="D221" t="s">
         <v>287</v>
@@ -7694,7 +7653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -7702,7 +7661,7 @@
         <v>229</v>
       </c>
       <c r="C222">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="D222" t="s">
         <v>283</v>
@@ -7723,7 +7682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -7731,7 +7690,7 @@
         <v>230</v>
       </c>
       <c r="C223">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="D223" t="s">
         <v>287</v>
@@ -7752,7 +7711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -7760,7 +7719,7 @@
         <v>231</v>
       </c>
       <c r="C224">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="D224" t="s">
         <v>283</v>
@@ -7781,7 +7740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -7789,7 +7748,7 @@
         <v>232</v>
       </c>
       <c r="C225">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="D225" t="s">
         <v>284</v>
@@ -7810,7 +7769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -7818,7 +7777,7 @@
         <v>233</v>
       </c>
       <c r="C226">
-        <v>0.54100000000000004</v>
+        <v>0.541</v>
       </c>
       <c r="D226" t="s">
         <v>284</v>
@@ -7839,7 +7798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -7847,7 +7806,7 @@
         <v>234</v>
       </c>
       <c r="C227">
-        <v>0.52100000000000002</v>
+        <v>0.521</v>
       </c>
       <c r="D227" t="s">
         <v>284</v>
@@ -7868,7 +7827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -7876,7 +7835,7 @@
         <v>235</v>
       </c>
       <c r="C228">
-        <v>0.52100000000000002</v>
+        <v>0.521</v>
       </c>
       <c r="D228" t="s">
         <v>283</v>
@@ -7897,7 +7856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -7905,7 +7864,7 @@
         <v>236</v>
       </c>
       <c r="C229">
-        <v>0.52100000000000002</v>
+        <v>0.521</v>
       </c>
       <c r="D229" t="s">
         <v>284</v>
@@ -7926,7 +7885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -7934,7 +7893,7 @@
         <v>237</v>
       </c>
       <c r="C230">
-        <v>0.52100000000000002</v>
+        <v>0.521</v>
       </c>
       <c r="D230" t="s">
         <v>283</v>
@@ -7955,7 +7914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -7963,7 +7922,7 @@
         <v>238</v>
       </c>
       <c r="C231">
-        <v>0.52100000000000002</v>
+        <v>0.521</v>
       </c>
       <c r="D231" t="s">
         <v>283</v>
@@ -7984,7 +7943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -7992,7 +7951,7 @@
         <v>239</v>
       </c>
       <c r="C232">
-        <v>0.52100000000000002</v>
+        <v>0.521</v>
       </c>
       <c r="D232" t="s">
         <v>287</v>
@@ -8013,7 +7972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -8021,7 +7980,7 @@
         <v>240</v>
       </c>
       <c r="C233">
-        <v>0.52100000000000002</v>
+        <v>0.521</v>
       </c>
       <c r="D233" t="s">
         <v>283</v>
@@ -8042,7 +8001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -8050,7 +8009,7 @@
         <v>241</v>
       </c>
       <c r="C234">
-        <v>0.52100000000000002</v>
+        <v>0.521</v>
       </c>
       <c r="D234" t="s">
         <v>283</v>
@@ -8071,7 +8030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -8079,7 +8038,7 @@
         <v>242</v>
       </c>
       <c r="C235">
-        <v>0.52100000000000002</v>
+        <v>0.521</v>
       </c>
       <c r="D235" t="s">
         <v>283</v>
@@ -8100,7 +8059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -8108,7 +8067,7 @@
         <v>243</v>
       </c>
       <c r="C236">
-        <v>0.52100000000000002</v>
+        <v>0.521</v>
       </c>
       <c r="D236" t="s">
         <v>283</v>
@@ -8129,7 +8088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -8137,7 +8096,7 @@
         <v>244</v>
       </c>
       <c r="C237">
-        <v>0.52100000000000002</v>
+        <v>0.521</v>
       </c>
       <c r="D237" t="s">
         <v>284</v>
@@ -8158,7 +8117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -8166,7 +8125,7 @@
         <v>245</v>
       </c>
       <c r="C238">
-        <v>0.52100000000000002</v>
+        <v>0.521</v>
       </c>
       <c r="D238" t="s">
         <v>283</v>
@@ -8187,7 +8146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -8195,7 +8154,7 @@
         <v>246</v>
       </c>
       <c r="C239">
-        <v>0.52100000000000002</v>
+        <v>0.521</v>
       </c>
       <c r="D239" t="s">
         <v>284</v>
@@ -8216,7 +8175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -8245,7 +8204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -8253,7 +8212,7 @@
         <v>248</v>
       </c>
       <c r="C241">
-        <v>0.50900000000000001</v>
+        <v>0.509</v>
       </c>
       <c r="D241" t="s">
         <v>283</v>
@@ -8274,7 +8233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -8303,7 +8262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -8332,7 +8291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -8361,7 +8320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -8390,7 +8349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -8419,7 +8378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -8448,7 +8407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -8477,7 +8436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -8506,7 +8465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -8535,7 +8494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -8543,7 +8502,7 @@
         <v>258</v>
       </c>
       <c r="C251">
-        <v>0.47899999999999998</v>
+        <v>0.479</v>
       </c>
       <c r="D251" t="s">
         <v>284</v>
@@ -8564,7 +8523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -8572,7 +8531,7 @@
         <v>259</v>
       </c>
       <c r="C252">
-        <v>0.47899999999999998</v>
+        <v>0.479</v>
       </c>
       <c r="D252" t="s">
         <v>284</v>
@@ -8593,7 +8552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -8601,7 +8560,7 @@
         <v>260</v>
       </c>
       <c r="C253">
-        <v>0.47899999999999998</v>
+        <v>0.479</v>
       </c>
       <c r="D253" t="s">
         <v>284</v>
@@ -8622,7 +8581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -8630,7 +8589,7 @@
         <v>261</v>
       </c>
       <c r="C254">
-        <v>0.47899999999999998</v>
+        <v>0.479</v>
       </c>
       <c r="D254" t="s">
         <v>283</v>
@@ -8651,7 +8610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -8659,7 +8618,7 @@
         <v>262</v>
       </c>
       <c r="C255">
-        <v>0.47899999999999998</v>
+        <v>0.479</v>
       </c>
       <c r="D255" t="s">
         <v>283</v>
@@ -8680,7 +8639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -8688,7 +8647,7 @@
         <v>263</v>
       </c>
       <c r="C256">
-        <v>0.47899999999999998</v>
+        <v>0.479</v>
       </c>
       <c r="D256" t="s">
         <v>287</v>
@@ -8709,7 +8668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -8717,7 +8676,7 @@
         <v>264</v>
       </c>
       <c r="C257">
-        <v>0.41499999999999998</v>
+        <v>0.415</v>
       </c>
       <c r="D257" t="s">
         <v>284</v>
@@ -8738,7 +8697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -8746,7 +8705,7 @@
         <v>265</v>
       </c>
       <c r="C258">
-        <v>0.39700000000000002</v>
+        <v>0.397</v>
       </c>
       <c r="D258" t="s">
         <v>284</v>
@@ -8767,7 +8726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -8775,7 +8734,7 @@
         <v>266</v>
       </c>
       <c r="C259">
-        <v>0.39600000000000002</v>
+        <v>0.396</v>
       </c>
       <c r="D259" t="s">
         <v>284</v>
@@ -8796,7 +8755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -8804,7 +8763,7 @@
         <v>267</v>
       </c>
       <c r="C260">
-        <v>0.39600000000000002</v>
+        <v>0.396</v>
       </c>
       <c r="D260" t="s">
         <v>283</v>
@@ -8825,7 +8784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -8833,7 +8792,7 @@
         <v>268</v>
       </c>
       <c r="C261">
-        <v>0.39600000000000002</v>
+        <v>0.396</v>
       </c>
       <c r="D261" t="s">
         <v>283</v>
@@ -8854,7 +8813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -8862,7 +8821,7 @@
         <v>269</v>
       </c>
       <c r="C262">
-        <v>0.39600000000000002</v>
+        <v>0.396</v>
       </c>
       <c r="D262" t="s">
         <v>284</v>
@@ -8883,7 +8842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -8891,7 +8850,7 @@
         <v>270</v>
       </c>
       <c r="C263">
-        <v>0.39600000000000002</v>
+        <v>0.396</v>
       </c>
       <c r="D263" t="s">
         <v>284</v>
@@ -8912,7 +8871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -8920,7 +8879,7 @@
         <v>271</v>
       </c>
       <c r="C264">
-        <v>0.39600000000000002</v>
+        <v>0.396</v>
       </c>
       <c r="D264" t="s">
         <v>284</v>
@@ -8941,7 +8900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -8970,7 +8929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -8999,7 +8958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -9028,7 +8987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -9057,7 +9016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -9086,7 +9045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -9115,7 +9074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -9123,7 +9082,7 @@
         <v>278</v>
       </c>
       <c r="C271">
-        <v>0.35399999999999998</v>
+        <v>0.354</v>
       </c>
       <c r="D271" t="s">
         <v>284</v>
@@ -9144,7 +9103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -9152,7 +9111,7 @@
         <v>279</v>
       </c>
       <c r="C272">
-        <v>0.35399999999999998</v>
+        <v>0.354</v>
       </c>
       <c r="D272" t="s">
         <v>283</v>
@@ -9173,7 +9132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -9181,7 +9140,7 @@
         <v>280</v>
       </c>
       <c r="C273">
-        <v>0.35399999999999998</v>
+        <v>0.354</v>
       </c>
       <c r="D273" t="s">
         <v>287</v>
@@ -9202,7 +9161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -9210,7 +9169,7 @@
         <v>281</v>
       </c>
       <c r="C274">
-        <v>0.35399999999999998</v>
+        <v>0.354</v>
       </c>
       <c r="D274" t="s">
         <v>283</v>
@@ -9231,7 +9190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -9239,7 +9198,7 @@
         <v>282</v>
       </c>
       <c r="C275">
-        <v>0.33300000000000002</v>
+        <v>0.333</v>
       </c>
       <c r="D275" t="s">
         <v>283</v>
